--- a/outputs-GTDB-r202/f__Ruminococcaceae.xlsx
+++ b/outputs-GTDB-r202/f__Ruminococcaceae.xlsx
@@ -4022,7 +4022,7 @@
       </c>
       <c r="BV15" t="inlineStr">
         <is>
-          <t>g__Ruminococcus</t>
+          <t>g__Ruminococcus(reject)</t>
         </is>
       </c>
     </row>
